--- a/biology/Zoologie/Agriolimacidae/Agriolimacidae.xlsx
+++ b/biology/Zoologie/Agriolimacidae/Agriolimacidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agriolimacidae sont une famille de limaces de petite taille (moins de 5 cm en général) dont certains représentants causent de sérieux dégâts dans les jardins et les cultures. Les agriolimacidés sont très proches des limacidés, auxquels certaines classifications les rattachent d'ailleurs. Au plan morphologique, ils s'en distinguent notamment par le fait que la carène dorsale, beaucoup plus réduite, retombe sur l'extrémité de la queue.
 </t>
@@ -511,7 +523,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deroceras Rafinesque, 1820
 Furcopenis Castillejo &amp; Wiktor, 1983
